--- a/Decision Analytics/01_Furniture Production Model.xlsx
+++ b/Decision Analytics/01_Furniture Production Model.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0FF7AE-7156-4AEB-A1F5-36AAF4798F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58ACA75-803E-44FB-ADE3-52BD3C32F271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="150" windowWidth="26715" windowHeight="23130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45090" yWindow="3930" windowWidth="37665" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SteelCo" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
   <si>
     <t>Type I</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Flair Furniture</t>
-  </si>
-  <si>
-    <t>Note, steps 1-4 are Hints.</t>
   </si>
   <si>
     <t>1) In Words:</t>
@@ -854,6 +851,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,9 +864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,15 +895,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>304798</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -921,8 +918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200023" y="4391025"/>
-          <a:ext cx="7658101" cy="4371975"/>
+          <a:off x="304798" y="3038475"/>
+          <a:ext cx="6162677" cy="4257675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,8 +960,12 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="2000" baseline="0"/>
-            <a:t> Furniture Monthly Plan:  Tables and Chairs.  Each Table requires 3 hrs Carpentry &amp; 2 hrs Paint and returns a profit of $7 each.  Each Chair provides $5 profit and requires 4 hrs Carpentry &amp; 1 hr Paint. Flair employs 15 carpenters 40 hrs a week for a total of 2400 hrs over the next month. They contract their Painting and have budgeted for 1000 Hrs this month.  </a:t>
+            <a:t> Furniture Monthly Plan:  Tables and Chairs.  Each Table requires 3 hrs Carpentry &amp; 2 hrs Paint and returns a profit of $7 each.  Each Chair provides $5 profit and requires 4 hrs Carpentry &amp; 1 hr Paint. Flair employs 15 carpenters 40 hrs a week for a total of 2400 hrs over the next month. They contract their Painting and have budgeted for 1000 Hrs this month. </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="2000" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -972,22 +973,6 @@
             <a:rPr lang="en-US" sz="2000" baseline="0"/>
             <a:t>Based on current orders and forecasts of future orders, Mgt has stipulated a maximum of 450 Chairs and a minimum of 100 Tables. Given those guidelines, how many tables and chairs should Flair plan to make this month to maximize total profit.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" i="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Note, you can move this text box within the spreadsheet.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" i="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1278,18 +1263,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42" t="s">
+      <c r="E2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
@@ -1371,30 +1356,30 @@
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41" t="s">
+      <c r="E10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E11" s="32">
@@ -1427,7 +1412,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="33">
         <f>E4</f>
@@ -1454,34 +1439,34 @@
         <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N13" s="30">
         <f>SUMPRODUCT(E13:J13,E11:J11)</f>
         <v>11735.294117647059</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="I16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>11</v>
@@ -1492,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -1576,7 +1561,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D19" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1671,7 +1656,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1695,7 +1680,7 @@
         <f>SUMPRODUCT(E22:J22,E$11:J$11)</f>
         <v>700</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="40" t="s">
         <v>10</v>
       </c>
       <c r="N22" s="31"/>
@@ -1724,12 +1709,12 @@
         <f>SUMPRODUCT(E23:J23,E$11:J$11)</f>
         <v>500.00000000000006</v>
       </c>
-      <c r="M23" s="39"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="31"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D24" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
@@ -1753,8 +1738,8 @@
         <f>SUMPRODUCT(E24:J24,E$11:J$11)/N17</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="M24" s="40" t="s">
-        <v>125</v>
+      <c r="M24" s="41" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
@@ -1780,7 +1765,7 @@
         <f>SUMPRODUCT(E25:J25,E$11:J$11)/N18</f>
         <v>0.88235294117647067</v>
       </c>
-      <c r="M25" s="39"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
@@ -1832,15 +1817,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1852,7 +1837,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,30 +1857,28 @@
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="21">
         <v>320</v>
@@ -1912,15 +1895,15 @@
         <v>4040</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="25">
         <v>7</v>
@@ -1930,7 +1913,7 @@
       </c>
       <c r="D4" s="10"/>
       <c r="M4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1944,7 +1927,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="L6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1952,30 +1935,30 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
@@ -1994,12 +1977,12 @@
         <v>2400</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -2018,12 +2001,12 @@
         <v>1000</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -2042,12 +2025,12 @@
         <v>100</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="9">
         <v>0</v>
@@ -2066,88 +2049,88 @@
         <v>450</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12" s="12"/>
       <c r="M12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M24" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M25" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2177,87 +2160,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D16" s="18">
         <v>2950</v>
@@ -2268,32 +2251,32 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F20" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="D21" s="27">
         <v>100</v>
@@ -2302,15 +2285,15 @@
         <v>320</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D22" s="28">
         <v>450</v>
@@ -2319,7 +2302,7 @@
         <v>360</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2329,39 +2312,39 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="D26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="27">
         <v>320</v>
       </c>
       <c r="E27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="G27" s="27">
         <v>220</v>
@@ -2369,19 +2352,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="27">
         <v>360</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="17">
         <v>90</v>
@@ -2389,19 +2372,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="27">
         <v>2400</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="17">
         <v>0</v>
@@ -2409,19 +2392,19 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="28">
         <v>1000</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="15">
         <v>0</v>
@@ -2452,72 +2435,72 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="D9" s="17">
         <v>320</v>
@@ -2537,10 +2520,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D10" s="15">
         <v>360</v>
@@ -2567,50 +2550,50 @@
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="D14" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="17">
         <v>320</v>
@@ -2630,10 +2613,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="17">
         <v>360</v>
@@ -2653,10 +2636,10 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="17">
         <v>2400</v>
@@ -2676,10 +2659,10 @@
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="15">
         <v>1000</v>
